--- a/biology/Médecine/Test_de_Cooper/Test_de_Cooper.xlsx
+++ b/biology/Médecine/Test_de_Cooper/Test_de_Cooper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de Cooper est un test de terrain consistant à parcourir la plus grande distance possible en 12 minutes.
 Il permet d'estimer la forme physique générale de la personne testée (par rapport à son niveau d'entraînement, son âge et son sexe), et, dans un cadre sportif, donne une estimation de sa vitesse maximale aérobie et de sa VO2Max.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenneth H. Cooper (en) est un ancien médecin militaire de l'armée de l'air américaine. Ce test lui permettait d'évaluer la « forme » des soldats.
 </t>
@@ -543,7 +557,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un échauffement classique, courir sur une piste d'athlétisme la plus grande distance possible en douze minutes et à la vitesse la plus régulière possible, sans sprint final : le sujet est censé courir à sa vitesse maximale aérobie (VMA). On note D cette distance.
 Une variante est le test du demi-Cooper : on ne court que six minutes, dans les mêmes conditions. La distance D est alors le double de la distance parcourue pendant les six minutes. 
@@ -578,12 +594,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Forme physique générale
-Une étude statistique[réf. nécessaire] réalisée sur 800 000 sujets permet de fournir un indice de forme physique[Quoi ?]. Il dépend du sexe et de l'âge du sujet. Plusieurs tables existent, mais les résultats couramment admis sont les suivants, avec une marge d'erreur de 50 mètres :
-Vitesse maximale aérobie
-La vitesse maximale aérobie, mesurée en km/h, est cinq fois la distance D en kilomètre. 
-VO2Max
-Ce test donne une approximation de la VO2Max, grâce à une des formules suivantes, selon l'entraînement du coureur (capacité à convertir l'oxygène consommé en vitesse), D en kilomètres et VO2Max en ml min−1 kg−1 :
+          <t>Forme physique générale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude statistique[réf. nécessaire] réalisée sur 800 000 sujets permet de fournir un indice de forme physique[Quoi ?]. Il dépend du sexe et de l'âge du sujet. Plusieurs tables existent, mais les résultats couramment admis sont les suivants, avec une marge d'erreur de 50 mètres :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test_de_Cooper</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Test_de_Cooper</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Interprétation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vitesse maximale aérobie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vitesse maximale aérobie, mesurée en km/h, est cinq fois la distance D en kilomètre. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test_de_Cooper</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Test_de_Cooper</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Interprétation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>VO2Max</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce test donne une approximation de la VO2Max, grâce à une des formules suivantes, selon l'entraînement du coureur (capacité à convertir l'oxygène consommé en vitesse), D en kilomètres et VO2Max en ml min−1 kg−1 :
 VO2Max = 22,351 × D - 11,288
 VO2Max = 22 × D - 10,39
 VO2Max = 20,2 × D - 5,41
@@ -591,63 +682,67 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Test_de_Cooper</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Test_de_Cooper</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Limites du test</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette méthode n'est pas très précise pour mesurer la vitesse maximale aérobie (VMA) ou la VO2max, notamment parce qu'il est difficile de maintenir une vitesse constante sur douze minutes. 
-En effet, la VMA ne peut être soutenue que sur une durée de 2 à 8 min[1],[2]. Il a été démontré qu'il est humainement impossible de courir à VO2Max durant plus de 10 minutes[réf. souhaitée]. Le sujet est donc amené à courir à une vitesse inférieure, ou à compenser en puisant dans le métabolisme anaérobie (et on risque de mesurer la capacité maximale anaérobie), mais dans les deux cas il est difficile de savoir dans quelles proportions.
+En effet, la VMA ne peut être soutenue que sur une durée de 2 à 8 min,. Il a été démontré qu'il est humainement impossible de courir à VO2Max durant plus de 10 minutes[réf. souhaitée]. Le sujet est donc amené à courir à une vitesse inférieure, ou à compenser en puisant dans le métabolisme anaérobie (et on risque de mesurer la capacité maximale anaérobie), mais dans les deux cas il est difficile de savoir dans quelles proportions.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Test_de_Cooper</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Test_de_Cooper</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour évaluer la condition de groupes assez homogènes, des variantes plus pratiques consistent simplement à mesurer la durée mise par chacun pour parcourir une distance de demi-fond et en déduire la vitesse moyenne, supposée constante. La distance dépend alors de l'objectif moyen pour le groupe, par exemple 2 400 m.
 Le test du demi-Cooper est également plus pratique car il ne prend que six minutes, et comme cette durée est un peu moindre que celle pendant laquelle la VMA peut être soutenue et qu'il est plus facile de garder une vitesse à peu près constante sur cette durée plus brève, certains le jugent moins imprécis que le test de cooper.
